--- a/Data/Bilançolar/BOSSA.xlsx
+++ b/Data/Bilançolar/BOSSA.xlsx
@@ -15430,7 +15430,7 @@
         <v>256139506</v>
       </c>
       <c r="C86" t="n">
-        <v>119821854</v>
+        <v>119764766</v>
       </c>
       <c r="D86" t="n">
         <v>493518201</v>
@@ -15605,7 +15605,7 @@
         <v>-177680661</v>
       </c>
       <c r="C87" t="n">
-        <v>-82410435</v>
+        <v>-82353347</v>
       </c>
       <c r="D87" t="n">
         <v>-295028358</v>
@@ -19805,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>5</v>
